--- a/0_0_Data/3_Naive_Forecaster_Data/0_Combined_QoQ_Forecasts/dt_full_qoq_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/0_Combined_QoQ_Forecasts/dt_full_qoq_AVERAGE_10_9.xlsx
@@ -826,7 +826,7 @@
     </row>
     <row r="2" spans="1:150">
       <c r="A2" s="1">
-        <v>25749</v>
+        <v>25841</v>
       </c>
       <c r="B2">
         <v>3.949077682514932</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="3" spans="1:150">
       <c r="A3" s="1">
-        <v>25841</v>
+        <v>25933</v>
       </c>
       <c r="B3">
         <v>1.874531367158205</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="4" spans="1:150">
       <c r="A4" s="1">
-        <v>25933</v>
+        <v>26023</v>
       </c>
       <c r="B4">
         <v>0.858684985279704</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="5" spans="1:150">
       <c r="A5" s="1">
-        <v>26023</v>
+        <v>26114</v>
       </c>
       <c r="B5">
         <v>-1.945998540501099</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="6" spans="1:150">
       <c r="A6" s="1">
-        <v>26114</v>
+        <v>26206</v>
       </c>
       <c r="B6">
         <v>2.133465641280079</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="7" spans="1:150">
       <c r="A7" s="1">
-        <v>26206</v>
+        <v>26298</v>
       </c>
       <c r="B7">
         <v>1.700267184843334</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="8" spans="1:150">
       <c r="A8" s="1">
-        <v>26298</v>
+        <v>26389</v>
       </c>
       <c r="B8">
         <v>-0.09553379508001725</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="9" spans="1:150">
       <c r="A9" s="1">
-        <v>26389</v>
+        <v>26480</v>
       </c>
       <c r="B9">
         <v>0.09562514941430368</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="10" spans="1:150">
       <c r="A10" s="1">
-        <v>26480</v>
+        <v>26572</v>
       </c>
       <c r="B10">
         <v>1.647957965130165</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="11" spans="1:150">
       <c r="A11" s="1">
-        <v>26572</v>
+        <v>26664</v>
       </c>
       <c r="B11">
         <v>2.326127819548863</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="12" spans="1:150">
       <c r="A12" s="1">
-        <v>26664</v>
+        <v>26754</v>
       </c>
       <c r="B12">
         <v>1.538461538461551</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="13" spans="1:150">
       <c r="A13" s="1">
-        <v>26754</v>
+        <v>26845</v>
       </c>
       <c r="B13">
         <v>1.447308909995468</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="14" spans="1:150">
       <c r="A14" s="1">
-        <v>26845</v>
+        <v>26937</v>
       </c>
       <c r="B14">
         <v>0.6910387873383952</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="15" spans="1:150">
       <c r="A15" s="1">
-        <v>26937</v>
+        <v>27029</v>
       </c>
       <c r="B15">
         <v>0.3542174009298183</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="16" spans="1:150">
       <c r="A16" s="1">
-        <v>27029</v>
+        <v>27119</v>
       </c>
       <c r="B16">
         <v>0.2206044562100178</v>
@@ -7606,7 +7606,7 @@
     </row>
     <row r="17" spans="1:150">
       <c r="A17" s="1">
-        <v>27119</v>
+        <v>27210</v>
       </c>
       <c r="B17">
         <v>0.836451683909317</v>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="18" spans="1:150">
       <c r="A18" s="1">
-        <v>27210</v>
+        <v>27302</v>
       </c>
       <c r="B18">
         <v>-0.08731717965510417</v>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="19" spans="1:150">
       <c r="A19" s="1">
-        <v>27302</v>
+        <v>27394</v>
       </c>
       <c r="B19">
         <v>0.02184837229626569</v>
@@ -8962,7 +8962,7 @@
     </row>
     <row r="20" spans="1:150">
       <c r="A20" s="1">
-        <v>27394</v>
+        <v>27484</v>
       </c>
       <c r="B20">
         <v>-1.245085190039327</v>
@@ -9414,7 +9414,7 @@
     </row>
     <row r="21" spans="1:150">
       <c r="A21" s="1">
-        <v>27484</v>
+        <v>27575</v>
       </c>
       <c r="B21">
         <v>-0.5750940057509247</v>
@@ -9866,7 +9866,7 @@
     </row>
     <row r="22" spans="1:150">
       <c r="A22" s="1">
-        <v>27575</v>
+        <v>27667</v>
       </c>
       <c r="B22">
         <v>-0.5116796440489535</v>
@@ -10318,7 +10318,7 @@
     </row>
     <row r="23" spans="1:150">
       <c r="A23" s="1">
-        <v>27667</v>
+        <v>27759</v>
       </c>
       <c r="B23">
         <v>1.095706618962428</v>
@@ -10770,7 +10770,7 @@
     </row>
     <row r="24" spans="1:150">
       <c r="A24" s="1">
-        <v>27759</v>
+        <v>27850</v>
       </c>
       <c r="B24">
         <v>1.968591019685915</v>
@@ -11222,7 +11222,7 @@
     </row>
     <row r="25" spans="1:150">
       <c r="A25" s="1">
-        <v>27850</v>
+        <v>27941</v>
       </c>
       <c r="B25">
         <v>0.8676789587852438</v>
@@ -11674,7 +11674,7 @@
     </row>
     <row r="26" spans="1:150">
       <c r="A26" s="1">
-        <v>27941</v>
+        <v>28033</v>
       </c>
       <c r="B26">
         <v>1.505376344086038</v>
@@ -12126,7 +12126,7 @@
     </row>
     <row r="27" spans="1:150">
       <c r="A27" s="1">
-        <v>28033</v>
+        <v>28125</v>
       </c>
       <c r="B27">
         <v>0.02118644067795302</v>
@@ -12578,7 +12578,7 @@
     </row>
     <row r="28" spans="1:150">
       <c r="A28" s="1">
-        <v>28125</v>
+        <v>28215</v>
       </c>
       <c r="B28">
         <v>1.864011861893669</v>
@@ -13030,7 +13030,7 @@
     </row>
     <row r="29" spans="1:150">
       <c r="A29" s="1">
-        <v>28215</v>
+        <v>28306</v>
       </c>
       <c r="B29">
         <v>0.873362445414845</v>
@@ -13482,7 +13482,7 @@
     </row>
     <row r="30" spans="1:150">
       <c r="A30" s="1">
-        <v>28306</v>
+        <v>28398</v>
       </c>
       <c r="B30">
         <v>0.5565862708719869</v>
@@ -13934,7 +13934,7 @@
     </row>
     <row r="31" spans="1:150">
       <c r="A31" s="1">
-        <v>28398</v>
+        <v>28490</v>
       </c>
       <c r="B31">
         <v>-0.04100041000410335</v>
@@ -14386,7 +14386,7 @@
     </row>
     <row r="32" spans="1:150">
       <c r="A32" s="1">
-        <v>28490</v>
+        <v>28580</v>
       </c>
       <c r="B32">
         <v>1.722723543888443</v>
@@ -14838,7 +14838,7 @@
     </row>
     <row r="33" spans="1:150">
       <c r="A33" s="1">
-        <v>28580</v>
+        <v>28671</v>
       </c>
       <c r="B33">
         <v>0.4032258064516032</v>
@@ -15290,7 +15290,7 @@
     </row>
     <row r="34" spans="1:150">
       <c r="A34" s="1">
-        <v>28671</v>
+        <v>28763</v>
       </c>
       <c r="B34">
         <v>0.4216867469879438</v>
@@ -15742,7 +15742,7 @@
     </row>
     <row r="35" spans="1:150">
       <c r="A35" s="1">
-        <v>28763</v>
+        <v>28855</v>
       </c>
       <c r="B35">
         <v>1.299740051989609</v>
@@ -16194,7 +16194,7 @@
     </row>
     <row r="36" spans="1:150">
       <c r="A36" s="1">
-        <v>28855</v>
+        <v>28945</v>
       </c>
       <c r="B36">
         <v>1.164626924595339</v>
@@ -16646,7 +16646,7 @@
     </row>
     <row r="37" spans="1:150">
       <c r="A37" s="1">
-        <v>28945</v>
+        <v>29036</v>
       </c>
       <c r="B37">
         <v>0.1365853658536696</v>
@@ -17098,7 +17098,7 @@
     </row>
     <row r="38" spans="1:150">
       <c r="A38" s="1">
-        <v>29036</v>
+        <v>29128</v>
       </c>
       <c r="B38">
         <v>3.098207326578323</v>
@@ -17550,7 +17550,7 @@
     </row>
     <row r="39" spans="1:150">
       <c r="A39" s="1">
-        <v>29128</v>
+        <v>29220</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -18002,7 +18002,7 @@
     </row>
     <row r="40" spans="1:150">
       <c r="A40" s="1">
-        <v>29220</v>
+        <v>29311</v>
       </c>
       <c r="B40">
         <v>0.6237006237006345</v>
@@ -18454,7 +18454,7 @@
     </row>
     <row r="41" spans="1:150">
       <c r="A41" s="1">
-        <v>29311</v>
+        <v>29402</v>
       </c>
       <c r="B41">
         <v>0.7888805409466416</v>
@@ -18906,7 +18906,7 @@
     </row>
     <row r="42" spans="1:150">
       <c r="A42" s="1">
-        <v>29402</v>
+        <v>29494</v>
       </c>
       <c r="B42">
         <v>-0.6522549385016648</v>
@@ -19358,7 +19358,7 @@
     </row>
     <row r="43" spans="1:150">
       <c r="A43" s="1">
-        <v>29494</v>
+        <v>29586</v>
       </c>
       <c r="B43">
         <v>-0.4126805477396301</v>
@@ -19810,7 +19810,7 @@
     </row>
     <row r="44" spans="1:150">
       <c r="A44" s="1">
-        <v>29586</v>
+        <v>29676</v>
       </c>
       <c r="B44">
         <v>-0.1318515728009148</v>
@@ -20262,7 +20262,7 @@
     </row>
     <row r="45" spans="1:150">
       <c r="A45" s="1">
-        <v>29676</v>
+        <v>29767</v>
       </c>
       <c r="B45">
         <v>1.207091663523191</v>
@@ -20714,7 +20714,7 @@
     </row>
     <row r="46" spans="1:150">
       <c r="A46" s="1">
-        <v>29767</v>
+        <v>29859</v>
       </c>
       <c r="B46">
         <v>-0.2609019754006529</v>
@@ -21166,7 +21166,7 @@
     </row>
     <row r="47" spans="1:150">
       <c r="A47" s="1">
-        <v>29859</v>
+        <v>29951</v>
       </c>
       <c r="B47">
         <v>0.2802690582959607</v>
@@ -21618,7 +21618,7 @@
     </row>
     <row r="48" spans="1:150">
       <c r="A48" s="1">
-        <v>29951</v>
+        <v>30041</v>
       </c>
       <c r="B48">
         <v>-0.111794298490786</v>
@@ -22070,7 +22070,7 @@
     </row>
     <row r="49" spans="1:150">
       <c r="A49" s="1">
-        <v>30041</v>
+        <v>30132</v>
       </c>
       <c r="B49">
         <v>0.4103711994030905</v>
@@ -22522,7 +22522,7 @@
     </row>
     <row r="50" spans="1:150">
       <c r="A50" s="1">
-        <v>30132</v>
+        <v>30224</v>
       </c>
       <c r="B50">
         <v>-0.6316180568456113</v>
@@ -22974,7 +22974,7 @@
     </row>
     <row r="51" spans="1:150">
       <c r="A51" s="1">
-        <v>30224</v>
+        <v>30316</v>
       </c>
       <c r="B51">
         <v>-0.9534492428491423</v>
@@ -23426,7 +23426,7 @@
     </row>
     <row r="52" spans="1:150">
       <c r="A52" s="1">
-        <v>30316</v>
+        <v>30406</v>
       </c>
       <c r="B52">
         <v>0.2076255190638144</v>
@@ -23878,7 +23878,7 @@
     </row>
     <row r="53" spans="1:150">
       <c r="A53" s="1">
-        <v>30406</v>
+        <v>30497</v>
       </c>
       <c r="B53">
         <v>0.9229610096063111</v>
@@ -24330,7 +24330,7 @@
     </row>
     <row r="54" spans="1:150">
       <c r="A54" s="1">
-        <v>30497</v>
+        <v>30589</v>
       </c>
       <c r="B54">
         <v>1.06382978723405</v>
@@ -24782,7 +24782,7 @@
     </row>
     <row r="55" spans="1:150">
       <c r="A55" s="1">
-        <v>30589</v>
+        <v>30681</v>
       </c>
       <c r="B55">
         <v>-0.2400738688827267</v>
@@ -25234,7 +25234,7 @@
     </row>
     <row r="56" spans="1:150">
       <c r="A56" s="1">
-        <v>30681</v>
+        <v>30772</v>
       </c>
       <c r="B56">
         <v>1.388374676045905</v>
@@ -25686,7 +25686,7 @@
     </row>
     <row r="57" spans="1:150">
       <c r="A57" s="1">
-        <v>30772</v>
+        <v>30863</v>
       </c>
       <c r="B57">
         <v>1.314588278254523</v>
@@ -26138,7 +26138,7 @@
     </row>
     <row r="58" spans="1:150">
       <c r="A58" s="1">
-        <v>30863</v>
+        <v>30955</v>
       </c>
       <c r="B58">
         <v>-1.567850063074441</v>
@@ -26590,7 +26590,7 @@
     </row>
     <row r="59" spans="1:150">
       <c r="A59" s="1">
-        <v>30955</v>
+        <v>31047</v>
       </c>
       <c r="B59">
         <v>2.727938484071772</v>
@@ -27042,7 +27042,7 @@
     </row>
     <row r="60" spans="1:150">
       <c r="A60" s="1">
-        <v>31047</v>
+        <v>31137</v>
       </c>
       <c r="B60">
         <v>0.8376403493138532</v>
@@ -27494,7 +27494,7 @@
     </row>
     <row r="61" spans="1:150">
       <c r="A61" s="1">
-        <v>31137</v>
+        <v>31228</v>
       </c>
       <c r="B61">
         <v>-0.5302226935312889</v>
@@ -27946,7 +27946,7 @@
     </row>
     <row r="62" spans="1:150">
       <c r="A62" s="1">
-        <v>31228</v>
+        <v>31320</v>
       </c>
       <c r="B62">
         <v>0.9772565742715041</v>
@@ -28398,7 +28398,7 @@
     </row>
     <row r="63" spans="1:150">
       <c r="A63" s="1">
-        <v>31320</v>
+        <v>31412</v>
       </c>
       <c r="B63">
         <v>1.30212915713531</v>
@@ -28850,7 +28850,7 @@
     </row>
     <row r="64" spans="1:150">
       <c r="A64" s="1">
-        <v>31412</v>
+        <v>31502</v>
       </c>
       <c r="B64">
         <v>0.6079555323953575</v>
@@ -29302,7 +29302,7 @@
     </row>
     <row r="65" spans="1:150">
       <c r="A65" s="1">
-        <v>31502</v>
+        <v>31593</v>
       </c>
       <c r="B65">
         <v>-0.5697513812154674</v>
@@ -29754,7 +29754,7 @@
     </row>
     <row r="66" spans="1:150">
       <c r="A66" s="1">
-        <v>31593</v>
+        <v>31685</v>
       </c>
       <c r="B66">
         <v>1.163396422990087</v>
@@ -30206,7 +30206,7 @@
     </row>
     <row r="67" spans="1:150">
       <c r="A67" s="1">
-        <v>31685</v>
+        <v>31777</v>
       </c>
       <c r="B67">
         <v>0.7380707174733948</v>
@@ -30658,7 +30658,7 @@
     </row>
     <row r="68" spans="1:150">
       <c r="A68" s="1">
-        <v>31777</v>
+        <v>31867</v>
       </c>
       <c r="B68">
         <v>0.9882433123189726</v>
@@ -31110,7 +31110,7 @@
     </row>
     <row r="69" spans="1:150">
       <c r="A69" s="1">
-        <v>31867</v>
+        <v>31958</v>
       </c>
       <c r="B69">
         <v>-2.513919352117431</v>
@@ -31562,7 +31562,7 @@
     </row>
     <row r="70" spans="1:150">
       <c r="A70" s="1">
-        <v>31958</v>
+        <v>32050</v>
       </c>
       <c r="B70">
         <v>2.249913464866736</v>
@@ -32014,7 +32014,7 @@
     </row>
     <row r="71" spans="1:150">
       <c r="A71" s="1">
-        <v>32050</v>
+        <v>32142</v>
       </c>
       <c r="B71">
         <v>0.7109004739336476</v>
@@ -32466,7 +32466,7 @@
     </row>
     <row r="72" spans="1:150">
       <c r="A72" s="1">
-        <v>32142</v>
+        <v>32233</v>
       </c>
       <c r="B72">
         <v>1.579831932773108</v>
@@ -32918,7 +32918,7 @@
     </row>
     <row r="73" spans="1:150">
       <c r="A73" s="1">
-        <v>32233</v>
+        <v>32324</v>
       </c>
       <c r="B73">
         <v>-0.8934480476505654</v>
@@ -33370,7 +33370,7 @@
     </row>
     <row r="74" spans="1:150">
       <c r="A74" s="1">
-        <v>32324</v>
+        <v>32416</v>
       </c>
       <c r="B74">
         <v>1.819699499165283</v>
@@ -33822,7 +33822,7 @@
     </row>
     <row r="75" spans="1:150">
       <c r="A75" s="1">
-        <v>32416</v>
+        <v>32508</v>
       </c>
       <c r="B75">
         <v>1.098540744384322</v>
@@ -34274,7 +34274,7 @@
     </row>
     <row r="76" spans="1:150">
       <c r="A76" s="1">
-        <v>32508</v>
+        <v>32598</v>
       </c>
       <c r="B76">
         <v>0.6941229168137555</v>
@@ -34726,7 +34726,7 @@
     </row>
     <row r="77" spans="1:150">
       <c r="A77" s="1">
-        <v>32598</v>
+        <v>32689</v>
       </c>
       <c r="B77">
         <v>0.6941229168137555</v>
@@ -35178,7 +35178,7 @@
     </row>
     <row r="78" spans="1:150">
       <c r="A78" s="1">
-        <v>32689</v>
+        <v>32781</v>
       </c>
       <c r="B78">
         <v>0.6941229168137555</v>
@@ -35630,7 +35630,7 @@
     </row>
     <row r="79" spans="1:150">
       <c r="A79" s="1">
-        <v>32781</v>
+        <v>32873</v>
       </c>
       <c r="B79">
         <v>0.6941229168137555</v>
@@ -36082,7 +36082,7 @@
     </row>
     <row r="80" spans="1:150">
       <c r="A80" s="1">
-        <v>32873</v>
+        <v>32963</v>
       </c>
       <c r="B80">
         <v>0.6941229168137555</v>
@@ -36534,7 +36534,7 @@
     </row>
     <row r="81" spans="1:150">
       <c r="A81" s="1">
-        <v>32963</v>
+        <v>33054</v>
       </c>
       <c r="B81">
         <v>0.6941229168137555</v>
@@ -36986,7 +36986,7 @@
     </row>
     <row r="82" spans="1:150">
       <c r="A82" s="1">
-        <v>33054</v>
+        <v>33146</v>
       </c>
       <c r="B82">
         <v>0.6941229168137555</v>
@@ -37438,7 +37438,7 @@
     </row>
     <row r="83" spans="1:150">
       <c r="A83" s="1">
-        <v>33146</v>
+        <v>33238</v>
       </c>
       <c r="B83">
         <v>0.6941229168137555</v>
@@ -37890,7 +37890,7 @@
     </row>
     <row r="84" spans="1:150">
       <c r="A84" s="1">
-        <v>33238</v>
+        <v>33328</v>
       </c>
       <c r="B84">
         <v>0.6941229168137555</v>
@@ -38342,7 +38342,7 @@
     </row>
     <row r="85" spans="1:150">
       <c r="A85" s="1">
-        <v>33328</v>
+        <v>33419</v>
       </c>
       <c r="B85">
         <v>0.6941229168137555</v>
@@ -38794,7 +38794,7 @@
     </row>
     <row r="86" spans="1:150">
       <c r="A86" s="1">
-        <v>33419</v>
+        <v>33511</v>
       </c>
       <c r="C86">
         <v>0.6977962488903545</v>
@@ -39243,7 +39243,7 @@
     </row>
     <row r="87" spans="1:150">
       <c r="A87" s="1">
-        <v>33511</v>
+        <v>33603</v>
       </c>
       <c r="D87">
         <v>0.7265532797071169</v>
@@ -39689,7 +39689,7 @@
     </row>
     <row r="88" spans="1:150">
       <c r="A88" s="1">
-        <v>33603</v>
+        <v>33694</v>
       </c>
       <c r="E88">
         <v>0.6689726032975558</v>
@@ -40132,7 +40132,7 @@
     </row>
     <row r="89" spans="1:150">
       <c r="A89" s="1">
-        <v>33694</v>
+        <v>33785</v>
       </c>
       <c r="F89">
         <v>1.010411931874227</v>
@@ -40572,7 +40572,7 @@
     </row>
     <row r="90" spans="1:150">
       <c r="A90" s="1">
-        <v>33785</v>
+        <v>33877</v>
       </c>
       <c r="G90">
         <v>0.9028466069939436</v>
@@ -41009,7 +41009,7 @@
     </row>
     <row r="91" spans="1:150">
       <c r="A91" s="1">
-        <v>33877</v>
+        <v>33969</v>
       </c>
       <c r="H91">
         <v>1.039122700114349</v>
@@ -41443,7 +41443,7 @@
     </row>
     <row r="92" spans="1:150">
       <c r="A92" s="1">
-        <v>33969</v>
+        <v>34059</v>
       </c>
       <c r="I92">
         <v>0.9296537578982891</v>
@@ -41874,7 +41874,7 @@
     </row>
     <row r="93" spans="1:150">
       <c r="A93" s="1">
-        <v>34059</v>
+        <v>34150</v>
       </c>
       <c r="J93">
         <v>1.230223668275899</v>
@@ -42302,7 +42302,7 @@
     </row>
     <row r="94" spans="1:150">
       <c r="A94" s="1">
-        <v>34150</v>
+        <v>34242</v>
       </c>
       <c r="K94">
         <v>1.225558682898375</v>
@@ -42727,7 +42727,7 @@
     </row>
     <row r="95" spans="1:150">
       <c r="A95" s="1">
-        <v>34242</v>
+        <v>34334</v>
       </c>
       <c r="L95">
         <v>1.391546652594672</v>
@@ -43149,7 +43149,7 @@
     </row>
     <row r="96" spans="1:150">
       <c r="A96" s="1">
-        <v>34334</v>
+        <v>34424</v>
       </c>
       <c r="M96">
         <v>1.382895392343677</v>
@@ -43568,7 +43568,7 @@
     </row>
     <row r="97" spans="1:150">
       <c r="A97" s="1">
-        <v>34424</v>
+        <v>34515</v>
       </c>
       <c r="N97">
         <v>1.220384266219</v>
@@ -43984,7 +43984,7 @@
     </row>
     <row r="98" spans="1:150">
       <c r="A98" s="1">
-        <v>34515</v>
+        <v>34607</v>
       </c>
       <c r="O98">
         <v>1.266097133135795</v>
@@ -44397,7 +44397,7 @@
     </row>
     <row r="99" spans="1:150">
       <c r="A99" s="1">
-        <v>34607</v>
+        <v>34699</v>
       </c>
       <c r="P99">
         <v>1.310921819859853</v>
@@ -44807,7 +44807,7 @@
     </row>
     <row r="100" spans="1:150">
       <c r="A100" s="1">
-        <v>34699</v>
+        <v>34789</v>
       </c>
       <c r="Q100">
         <v>1.189380007335642</v>
@@ -45214,7 +45214,7 @@
     </row>
     <row r="101" spans="1:150">
       <c r="A101" s="1">
-        <v>34789</v>
+        <v>34880</v>
       </c>
       <c r="R101">
         <v>0.9669164196629385</v>
@@ -45618,7 +45618,7 @@
     </row>
     <row r="102" spans="1:150">
       <c r="A102" s="1">
-        <v>34880</v>
+        <v>34972</v>
       </c>
       <c r="S102">
         <v>0.9046564641343317</v>
@@ -46019,7 +46019,7 @@
     </row>
     <row r="103" spans="1:150">
       <c r="A103" s="1">
-        <v>34972</v>
+        <v>35064</v>
       </c>
       <c r="T103">
         <v>0.5144912346401558</v>
@@ -46417,7 +46417,7 @@
     </row>
     <row r="104" spans="1:150">
       <c r="A104" s="1">
-        <v>35064</v>
+        <v>35155</v>
       </c>
       <c r="U104">
         <v>0.4002556464150967</v>
@@ -46812,7 +46812,7 @@
     </row>
     <row r="105" spans="1:150">
       <c r="A105" s="1">
-        <v>35155</v>
+        <v>35246</v>
       </c>
       <c r="V105">
         <v>0.196837000609057</v>
@@ -47204,7 +47204,7 @@
     </row>
     <row r="106" spans="1:150">
       <c r="A106" s="1">
-        <v>35246</v>
+        <v>35338</v>
       </c>
       <c r="W106">
         <v>0.06611687940479796</v>
@@ -47593,7 +47593,7 @@
     </row>
     <row r="107" spans="1:150">
       <c r="A107" s="1">
-        <v>35338</v>
+        <v>35430</v>
       </c>
       <c r="X107">
         <v>0.2438250556392446</v>
@@ -47979,7 +47979,7 @@
     </row>
     <row r="108" spans="1:150">
       <c r="A108" s="1">
-        <v>35430</v>
+        <v>35520</v>
       </c>
       <c r="Y108">
         <v>0.28010555977989</v>
@@ -48362,7 +48362,7 @@
     </row>
     <row r="109" spans="1:150">
       <c r="A109" s="1">
-        <v>35520</v>
+        <v>35611</v>
       </c>
       <c r="Z109">
         <v>0.207454499574576</v>
@@ -48742,7 +48742,7 @@
     </row>
     <row r="110" spans="1:150">
       <c r="A110" s="1">
-        <v>35611</v>
+        <v>35703</v>
       </c>
       <c r="AA110">
         <v>0.2734065588080321</v>
@@ -49119,7 +49119,7 @@
     </row>
     <row r="111" spans="1:150">
       <c r="A111" s="1">
-        <v>35703</v>
+        <v>35795</v>
       </c>
       <c r="AB111">
         <v>0.3098800914713071</v>
@@ -49493,7 +49493,7 @@
     </row>
     <row r="112" spans="1:150">
       <c r="A112" s="1">
-        <v>35795</v>
+        <v>35885</v>
       </c>
       <c r="AC112">
         <v>0.4302782422791499</v>
@@ -49864,7 +49864,7 @@
     </row>
     <row r="113" spans="1:150">
       <c r="A113" s="1">
-        <v>35885</v>
+        <v>35976</v>
       </c>
       <c r="AD113">
         <v>0.6078992789691108</v>
@@ -50232,7 +50232,7 @@
     </row>
     <row r="114" spans="1:150">
       <c r="A114" s="1">
-        <v>35976</v>
+        <v>36068</v>
       </c>
       <c r="AE114">
         <v>0.5211670451689333</v>
@@ -50597,7 +50597,7 @@
     </row>
     <row r="115" spans="1:150">
       <c r="A115" s="1">
-        <v>36068</v>
+        <v>36160</v>
       </c>
       <c r="AF115">
         <v>0.4316829867807276</v>
@@ -50959,7 +50959,7 @@
     </row>
     <row r="116" spans="1:150">
       <c r="A116" s="1">
-        <v>36160</v>
+        <v>36250</v>
       </c>
       <c r="AG116">
         <v>0.5660059002693849</v>
@@ -51318,7 +51318,7 @@
     </row>
     <row r="117" spans="1:150">
       <c r="A117" s="1">
-        <v>36250</v>
+        <v>36341</v>
       </c>
       <c r="AH117">
         <v>0.5293349251255315</v>
@@ -51674,7 +51674,7 @@
     </row>
     <row r="118" spans="1:150">
       <c r="A118" s="1">
-        <v>36341</v>
+        <v>36433</v>
       </c>
       <c r="AI118">
         <v>0.4513582675054688</v>
@@ -52027,7 +52027,7 @@
     </row>
     <row r="119" spans="1:150">
       <c r="A119" s="1">
-        <v>36433</v>
+        <v>36525</v>
       </c>
       <c r="AJ119">
         <v>0.4385008674071109</v>
@@ -52377,7 +52377,7 @@
     </row>
     <row r="120" spans="1:150">
       <c r="A120" s="1">
-        <v>36525</v>
+        <v>36616</v>
       </c>
       <c r="AK120">
         <v>0.413380026209433</v>
@@ -52724,7 +52724,7 @@
     </row>
     <row r="121" spans="1:150">
       <c r="A121" s="1">
-        <v>36616</v>
+        <v>36707</v>
       </c>
       <c r="AL121">
         <v>0.4658116210677422</v>
@@ -53068,7 +53068,7 @@
     </row>
     <row r="122" spans="1:150">
       <c r="A122" s="1">
-        <v>36707</v>
+        <v>36799</v>
       </c>
       <c r="AM122">
         <v>0.4181062710828364</v>
@@ -53409,7 +53409,7 @@
     </row>
     <row r="123" spans="1:150">
       <c r="A123" s="1">
-        <v>36799</v>
+        <v>36891</v>
       </c>
       <c r="AN123">
         <v>0.5384412360130529</v>
@@ -53747,7 +53747,7 @@
     </row>
     <row r="124" spans="1:150">
       <c r="A124" s="1">
-        <v>36891</v>
+        <v>36981</v>
       </c>
       <c r="AO124">
         <v>0.5927126047459808</v>
@@ -54082,7 +54082,7 @@
     </row>
     <row r="125" spans="1:150">
       <c r="A125" s="1">
-        <v>36981</v>
+        <v>37072</v>
       </c>
       <c r="AP125">
         <v>0.6706807844985097</v>
@@ -54414,7 +54414,7 @@
     </row>
     <row r="126" spans="1:150">
       <c r="A126" s="1">
-        <v>37072</v>
+        <v>37164</v>
       </c>
       <c r="AQ126">
         <v>0.4946468788584245</v>
@@ -54743,7 +54743,7 @@
     </row>
     <row r="127" spans="1:150">
       <c r="A127" s="1">
-        <v>37164</v>
+        <v>37256</v>
       </c>
       <c r="AR127">
         <v>0.3934033285524757</v>
@@ -55069,7 +55069,7 @@
     </row>
     <row r="128" spans="1:150">
       <c r="A128" s="1">
-        <v>37256</v>
+        <v>37346</v>
       </c>
       <c r="AS128">
         <v>0.3112293886097183</v>
@@ -55392,7 +55392,7 @@
     </row>
     <row r="129" spans="1:150">
       <c r="A129" s="1">
-        <v>37346</v>
+        <v>37437</v>
       </c>
       <c r="AT129">
         <v>0.455531728878449</v>
@@ -55712,7 +55712,7 @@
     </row>
     <row r="130" spans="1:150">
       <c r="A130" s="1">
-        <v>37437</v>
+        <v>37529</v>
       </c>
       <c r="AU130">
         <v>0.4247769310011789</v>
@@ -56029,7 +56029,7 @@
     </row>
     <row r="131" spans="1:150">
       <c r="A131" s="1">
-        <v>37529</v>
+        <v>37621</v>
       </c>
       <c r="AV131">
         <v>0.4582009035931788</v>
@@ -56343,7 +56343,7 @@
     </row>
     <row r="132" spans="1:150">
       <c r="A132" s="1">
-        <v>37621</v>
+        <v>37711</v>
       </c>
       <c r="AW132">
         <v>0.52853566461182</v>
@@ -56654,7 +56654,7 @@
     </row>
     <row r="133" spans="1:150">
       <c r="A133" s="1">
-        <v>37711</v>
+        <v>37802</v>
       </c>
       <c r="AX133">
         <v>0.4797652918828937</v>
@@ -56962,7 +56962,7 @@
     </row>
     <row r="134" spans="1:150">
       <c r="A134" s="1">
-        <v>37802</v>
+        <v>37894</v>
       </c>
       <c r="AY134">
         <v>0.5372636768001781</v>
@@ -57267,7 +57267,7 @@
     </row>
     <row r="135" spans="1:150">
       <c r="A135" s="1">
-        <v>37894</v>
+        <v>37986</v>
       </c>
       <c r="AZ135">
         <v>0.5446302776114635</v>
@@ -57569,7 +57569,7 @@
     </row>
     <row r="136" spans="1:150">
       <c r="A136" s="1">
-        <v>37986</v>
+        <v>38077</v>
       </c>
       <c r="BA136">
         <v>0.584225439885914</v>
@@ -57868,7 +57868,7 @@
     </row>
     <row r="137" spans="1:150">
       <c r="A137" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="BB137">
         <v>0.4577438289507324</v>
@@ -58164,7 +58164,7 @@
     </row>
     <row r="138" spans="1:150">
       <c r="A138" s="1">
-        <v>38168</v>
+        <v>38260</v>
       </c>
       <c r="BC138">
         <v>0.4573018825487105</v>
@@ -58457,7 +58457,7 @@
     </row>
     <row r="139" spans="1:150">
       <c r="A139" s="1">
-        <v>38260</v>
+        <v>38352</v>
       </c>
       <c r="BD139">
         <v>0.3487543934966478</v>
@@ -58747,7 +58747,7 @@
     </row>
     <row r="140" spans="1:150">
       <c r="A140" s="1">
-        <v>38352</v>
+        <v>38442</v>
       </c>
       <c r="BE140">
         <v>0.255281228968523</v>
@@ -59034,7 +59034,7 @@
     </row>
     <row r="141" spans="1:150">
       <c r="A141" s="1">
-        <v>38442</v>
+        <v>38533</v>
       </c>
       <c r="BF141">
         <v>0.196079099379528</v>
@@ -59318,7 +59318,7 @@
     </row>
     <row r="142" spans="1:150">
       <c r="A142" s="1">
-        <v>38533</v>
+        <v>38625</v>
       </c>
       <c r="BG142">
         <v>0.09136230502795779</v>
@@ -59599,7 +59599,7 @@
     </row>
     <row r="143" spans="1:150">
       <c r="A143" s="1">
-        <v>38625</v>
+        <v>38717</v>
       </c>
       <c r="BH143">
         <v>0.06399930331093673</v>
@@ -59877,7 +59877,7 @@
     </row>
     <row r="144" spans="1:150">
       <c r="A144" s="1">
-        <v>38717</v>
+        <v>38807</v>
       </c>
       <c r="BI144">
         <v>0.07334711583925703</v>
@@ -60152,7 +60152,7 @@
     </row>
     <row r="145" spans="1:150">
       <c r="A145" s="1">
-        <v>38807</v>
+        <v>38898</v>
       </c>
       <c r="BJ145">
         <v>-6.049006130520729E-05</v>
@@ -60424,7 +60424,7 @@
     </row>
     <row r="146" spans="1:150">
       <c r="A146" s="1">
-        <v>38898</v>
+        <v>38990</v>
       </c>
       <c r="BK146">
         <v>0.02123607104907491</v>
@@ -60693,7 +60693,7 @@
     </row>
     <row r="147" spans="1:150">
       <c r="A147" s="1">
-        <v>38990</v>
+        <v>39082</v>
       </c>
       <c r="BL147">
         <v>0.08464689759247299</v>
@@ -60959,7 +60959,7 @@
     </row>
     <row r="148" spans="1:150">
       <c r="A148" s="1">
-        <v>39082</v>
+        <v>39172</v>
       </c>
       <c r="BM148">
         <v>0.139984886153875</v>
@@ -61222,7 +61222,7 @@
     </row>
     <row r="149" spans="1:150">
       <c r="A149" s="1">
-        <v>39172</v>
+        <v>39263</v>
       </c>
       <c r="BN149">
         <v>0.1403118607824707</v>
@@ -61482,7 +61482,7 @@
     </row>
     <row r="150" spans="1:150">
       <c r="A150" s="1">
-        <v>39263</v>
+        <v>39355</v>
       </c>
       <c r="BO150">
         <v>0.08973464093123734</v>
@@ -61739,7 +61739,7 @@
     </row>
     <row r="151" spans="1:150">
       <c r="A151" s="1">
-        <v>39355</v>
+        <v>39447</v>
       </c>
       <c r="BP151">
         <v>0.1664705992650774</v>
@@ -61993,7 +61993,7 @@
     </row>
     <row r="152" spans="1:150">
       <c r="A152" s="1">
-        <v>39447</v>
+        <v>39538</v>
       </c>
       <c r="BQ152">
         <v>0.139526942479626</v>
@@ -62244,7 +62244,7 @@
     </row>
     <row r="153" spans="1:150">
       <c r="A153" s="1">
-        <v>39538</v>
+        <v>39629</v>
       </c>
       <c r="BR153">
         <v>0.2663255547813869</v>
@@ -62492,7 +62492,7 @@
     </row>
     <row r="154" spans="1:150">
       <c r="A154" s="1">
-        <v>39629</v>
+        <v>39721</v>
       </c>
       <c r="BS154">
         <v>0.2927776881228313</v>
@@ -62737,7 +62737,7 @@
     </row>
     <row r="155" spans="1:150">
       <c r="A155" s="1">
-        <v>39721</v>
+        <v>39813</v>
       </c>
       <c r="BT155">
         <v>0.3072286933641231</v>
@@ -62979,7 +62979,7 @@
     </row>
     <row r="156" spans="1:150">
       <c r="A156" s="1">
-        <v>39813</v>
+        <v>39903</v>
       </c>
       <c r="BU156">
         <v>0.3432290764637597</v>
@@ -63218,7 +63218,7 @@
     </row>
     <row r="157" spans="1:150">
       <c r="A157" s="1">
-        <v>39903</v>
+        <v>39994</v>
       </c>
       <c r="BV157">
         <v>0.3980203508502676</v>
@@ -63454,7 +63454,7 @@
     </row>
     <row r="158" spans="1:150">
       <c r="A158" s="1">
-        <v>39994</v>
+        <v>40086</v>
       </c>
       <c r="BW158">
         <v>0.5254668165067387</v>
@@ -63687,7 +63687,7 @@
     </row>
     <row r="159" spans="1:150">
       <c r="A159" s="1">
-        <v>40086</v>
+        <v>40178</v>
       </c>
       <c r="BX159">
         <v>0.611889475066235</v>
@@ -63917,7 +63917,7 @@
     </row>
     <row r="160" spans="1:150">
       <c r="A160" s="1">
-        <v>40178</v>
+        <v>40268</v>
       </c>
       <c r="BY160">
         <v>0.6294852851196401</v>
@@ -64144,7 +64144,7 @@
     </row>
     <row r="161" spans="1:150">
       <c r="A161" s="1">
-        <v>40268</v>
+        <v>40359</v>
       </c>
       <c r="BZ161">
         <v>0.6624312234319696</v>
@@ -64368,7 +64368,7 @@
     </row>
     <row r="162" spans="1:150">
       <c r="A162" s="1">
-        <v>40359</v>
+        <v>40451</v>
       </c>
       <c r="CA162">
         <v>0.6479710228601918</v>
@@ -64589,7 +64589,7 @@
     </row>
     <row r="163" spans="1:150">
       <c r="A163" s="1">
-        <v>40451</v>
+        <v>40543</v>
       </c>
       <c r="CB163">
         <v>0.7441680314761443</v>
@@ -64807,7 +64807,7 @@
     </row>
     <row r="164" spans="1:150">
       <c r="A164" s="1">
-        <v>40543</v>
+        <v>40633</v>
       </c>
       <c r="CC164">
         <v>0.6547901257702069</v>
@@ -65022,7 +65022,7 @@
     </row>
     <row r="165" spans="1:150">
       <c r="A165" s="1">
-        <v>40633</v>
+        <v>40724</v>
       </c>
       <c r="CD165">
         <v>0.5383282916003549</v>
@@ -65234,7 +65234,7 @@
     </row>
     <row r="166" spans="1:150">
       <c r="A166" s="1">
-        <v>40724</v>
+        <v>40816</v>
       </c>
       <c r="CE166">
         <v>0.1818297597035944</v>
@@ -65443,7 +65443,7 @@
     </row>
     <row r="167" spans="1:150">
       <c r="A167" s="1">
-        <v>40816</v>
+        <v>40908</v>
       </c>
       <c r="CF167">
         <v>-0.2799684307986602</v>
@@ -65649,7 +65649,7 @@
     </row>
     <row r="168" spans="1:150">
       <c r="A168" s="1">
-        <v>40908</v>
+        <v>40999</v>
       </c>
       <c r="CG168">
         <v>-0.3373491821102736</v>
@@ -65852,7 +65852,7 @@
     </row>
     <row r="169" spans="1:150">
       <c r="A169" s="1">
-        <v>40999</v>
+        <v>41090</v>
       </c>
       <c r="CH169">
         <v>-0.2844562691596675</v>
@@ -66052,7 +66052,7 @@
     </row>
     <row r="170" spans="1:150">
       <c r="A170" s="1">
-        <v>41090</v>
+        <v>41182</v>
       </c>
       <c r="CI170">
         <v>-0.3139862207927315</v>
@@ -66249,7 +66249,7 @@
     </row>
     <row r="171" spans="1:150">
       <c r="A171" s="1">
-        <v>41182</v>
+        <v>41274</v>
       </c>
       <c r="CJ171">
         <v>-0.3608021799647745</v>
@@ -66443,7 +66443,7 @@
     </row>
     <row r="172" spans="1:150">
       <c r="A172" s="1">
-        <v>41274</v>
+        <v>41364</v>
       </c>
       <c r="CK172">
         <v>-0.12628722994408</v>
@@ -66634,7 +66634,7 @@
     </row>
     <row r="173" spans="1:150">
       <c r="A173" s="1">
-        <v>41364</v>
+        <v>41455</v>
       </c>
       <c r="CL173">
         <v>-0.1703233649732007</v>
@@ -66822,7 +66822,7 @@
     </row>
     <row r="174" spans="1:150">
       <c r="A174" s="1">
-        <v>41455</v>
+        <v>41547</v>
       </c>
       <c r="CM174">
         <v>-0.06497206438053668</v>
@@ -67007,7 +67007,7 @@
     </row>
     <row r="175" spans="1:150">
       <c r="A175" s="1">
-        <v>41547</v>
+        <v>41639</v>
       </c>
       <c r="CN175">
         <v>0.1305915191252485</v>
@@ -67189,7 +67189,7 @@
     </row>
     <row r="176" spans="1:150">
       <c r="A176" s="1">
-        <v>41639</v>
+        <v>41729</v>
       </c>
       <c r="CO176">
         <v>0.3040734292842707</v>
@@ -67368,7 +67368,7 @@
     </row>
     <row r="177" spans="1:150">
       <c r="A177" s="1">
-        <v>41729</v>
+        <v>41820</v>
       </c>
       <c r="CP177">
         <v>0.7707958028869695</v>
@@ -67544,7 +67544,7 @@
     </row>
     <row r="178" spans="1:150">
       <c r="A178" s="1">
-        <v>41820</v>
+        <v>41912</v>
       </c>
       <c r="CQ178">
         <v>0.728485290145509</v>
@@ -67717,7 +67717,7 @@
     </row>
     <row r="179" spans="1:150">
       <c r="A179" s="1">
-        <v>41912</v>
+        <v>42004</v>
       </c>
       <c r="CR179">
         <v>0.6982082002245201</v>
@@ -67887,7 +67887,7 @@
     </row>
     <row r="180" spans="1:150">
       <c r="A180" s="1">
-        <v>42004</v>
+        <v>42094</v>
       </c>
       <c r="CS180">
         <v>0.685593016150544</v>
@@ -68054,7 +68054,7 @@
     </row>
     <row r="181" spans="1:150">
       <c r="A181" s="1">
-        <v>42094</v>
+        <v>42185</v>
       </c>
       <c r="CT181">
         <v>0.642517155860985</v>
@@ -68218,7 +68218,7 @@
     </row>
     <row r="182" spans="1:150">
       <c r="A182" s="1">
-        <v>42185</v>
+        <v>42277</v>
       </c>
       <c r="CU182">
         <v>0.3630944065379357</v>
@@ -68379,7 +68379,7 @@
     </row>
     <row r="183" spans="1:150">
       <c r="A183" s="1">
-        <v>42277</v>
+        <v>42369</v>
       </c>
       <c r="CV183">
         <v>0.2884579956870195</v>
@@ -68537,7 +68537,7 @@
     </row>
     <row r="184" spans="1:150">
       <c r="A184" s="1">
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="CW184">
         <v>0.3193273013225455</v>
@@ -68692,7 +68692,7 @@
     </row>
     <row r="185" spans="1:150">
       <c r="A185" s="1">
-        <v>42460</v>
+        <v>42551</v>
       </c>
       <c r="CX185">
         <v>0.1981397788874456</v>
@@ -68844,7 +68844,7 @@
     </row>
     <row r="186" spans="1:150">
       <c r="A186" s="1">
-        <v>42551</v>
+        <v>42643</v>
       </c>
       <c r="CY186">
         <v>0.2274130099267809</v>
@@ -68993,7 +68993,7 @@
     </row>
     <row r="187" spans="1:150">
       <c r="A187" s="1">
-        <v>42643</v>
+        <v>42735</v>
       </c>
       <c r="CZ187">
         <v>0.2664625129919059</v>
@@ -69139,7 +69139,7 @@
     </row>
     <row r="188" spans="1:150">
       <c r="A188" s="1">
-        <v>42735</v>
+        <v>42825</v>
       </c>
       <c r="DA188">
         <v>0.1749360396833936</v>
@@ -69282,7 +69282,7 @@
     </row>
     <row r="189" spans="1:150">
       <c r="A189" s="1">
-        <v>42825</v>
+        <v>42916</v>
       </c>
       <c r="DB189">
         <v>0.1678009349620006</v>
@@ -69422,7 +69422,7 @@
     </row>
     <row r="190" spans="1:150">
       <c r="A190" s="1">
-        <v>42916</v>
+        <v>43008</v>
       </c>
       <c r="DC190">
         <v>0.2262235086062239</v>
@@ -69559,7 +69559,7 @@
     </row>
     <row r="191" spans="1:150">
       <c r="A191" s="1">
-        <v>43008</v>
+        <v>43100</v>
       </c>
       <c r="DD191">
         <v>0.2448105132036734</v>
@@ -69693,7 +69693,7 @@
     </row>
     <row r="192" spans="1:150">
       <c r="A192" s="1">
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="DE192">
         <v>0.3577719600750547</v>
@@ -69824,7 +69824,7 @@
     </row>
     <row r="193" spans="1:150">
       <c r="A193" s="1">
-        <v>43190</v>
+        <v>43281</v>
       </c>
       <c r="DF193">
         <v>0.4163265652198342</v>
@@ -69952,7 +69952,7 @@
     </row>
     <row r="194" spans="1:150">
       <c r="A194" s="1">
-        <v>43281</v>
+        <v>43373</v>
       </c>
       <c r="DG194">
         <v>0.3496473259638563</v>
@@ -70077,7 +70077,7 @@
     </row>
     <row r="195" spans="1:150">
       <c r="A195" s="1">
-        <v>43373</v>
+        <v>43465</v>
       </c>
       <c r="DH195">
         <v>0.3788614630760844</v>
@@ -70199,7 +70199,7 @@
     </row>
     <row r="196" spans="1:150">
       <c r="A196" s="1">
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="DI196">
         <v>0.3975045438070423</v>
@@ -70318,7 +70318,7 @@
     </row>
     <row r="197" spans="1:150">
       <c r="A197" s="1">
-        <v>43555</v>
+        <v>43646</v>
       </c>
       <c r="DJ197">
         <v>0.3569589506680418</v>
@@ -70434,7 +70434,7 @@
     </row>
     <row r="198" spans="1:150">
       <c r="A198" s="1">
-        <v>43646</v>
+        <v>43738</v>
       </c>
       <c r="DK198">
         <v>0.41093607707931</v>
@@ -70547,7 +70547,7 @@
     </row>
     <row r="199" spans="1:150">
       <c r="A199" s="1">
-        <v>43738</v>
+        <v>43830</v>
       </c>
       <c r="DL199">
         <v>0.4450648425140112</v>
@@ -70657,7 +70657,7 @@
     </row>
     <row r="200" spans="1:150">
       <c r="A200" s="1">
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="DM200">
         <v>0.4478334266741417</v>
@@ -70764,7 +70764,7 @@
     </row>
     <row r="201" spans="1:150">
       <c r="A201" s="1">
-        <v>43921</v>
+        <v>44012</v>
       </c>
       <c r="DN201">
         <v>0.5387779590805554</v>
@@ -70868,7 +70868,7 @@
     </row>
     <row r="202" spans="1:150">
       <c r="A202" s="1">
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="DO202">
         <v>0.5469815053509908</v>
@@ -70969,7 +70969,7 @@
     </row>
     <row r="203" spans="1:150">
       <c r="A203" s="1">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="DP203">
         <v>0.5443919446995226</v>
@@ -71067,7 +71067,7 @@
     </row>
     <row r="204" spans="1:150">
       <c r="A204" s="1">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="DQ204">
         <v>0.5509252772825745</v>
@@ -71162,7 +71162,7 @@
     </row>
     <row r="205" spans="1:150">
       <c r="A205" s="1">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="DR205">
         <v>0.4397085823035038</v>
@@ -71254,7 +71254,7 @@
     </row>
     <row r="206" spans="1:150">
       <c r="A206" s="1">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="DS206">
         <v>0.3979624383165997</v>
@@ -71343,7 +71343,7 @@
     </row>
     <row r="207" spans="1:150">
       <c r="A207" s="1">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="DT207">
         <v>0.4232775010493146</v>
@@ -71429,7 +71429,7 @@
     </row>
     <row r="208" spans="1:150">
       <c r="A208" s="1">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="DU208">
         <v>0.4273161660922285</v>
@@ -71512,7 +71512,7 @@
     </row>
     <row r="209" spans="1:150">
       <c r="A209" s="1">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="DV209">
         <v>0.3084390294012061</v>
@@ -71592,7 +71592,7 @@
     </row>
     <row r="210" spans="1:150">
       <c r="A210" s="1">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="DW210">
         <v>0.2675153907458341</v>
@@ -71669,7 +71669,7 @@
     </row>
     <row r="211" spans="1:150">
       <c r="A211" s="1">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="DX211">
         <v>-0.04740977767513747</v>
@@ -71743,7 +71743,7 @@
     </row>
     <row r="212" spans="1:150">
       <c r="A212" s="1">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="DY212">
         <v>-1.103784737857667</v>
@@ -71814,7 +71814,7 @@
     </row>
     <row r="213" spans="1:150">
       <c r="A213" s="1">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="DZ213">
         <v>-0.2331383618867365</v>
@@ -71882,7 +71882,7 @@
     </row>
     <row r="214" spans="1:150">
       <c r="A214" s="1">
-        <v>45107</v>
+        <v>45199</v>
       </c>
       <c r="EA214">
         <v>-0.24378957821662</v>
@@ -71947,7 +71947,7 @@
     </row>
     <row r="215" spans="1:150">
       <c r="A215" s="1">
-        <v>45199</v>
+        <v>45291</v>
       </c>
       <c r="EB215">
         <v>-0.3524041104327608</v>
@@ -72009,7 +72009,7 @@
     </row>
     <row r="216" spans="1:150">
       <c r="A216" s="1">
-        <v>45291</v>
+        <v>45382</v>
       </c>
       <c r="EC216">
         <v>-0.1443023894650218</v>
@@ -72068,7 +72068,7 @@
     </row>
     <row r="217" spans="1:150">
       <c r="A217" s="1">
-        <v>45382</v>
+        <v>45473</v>
       </c>
       <c r="ED217">
         <v>-0.02780421909122137</v>
@@ -72124,7 +72124,7 @@
     </row>
     <row r="218" spans="1:150">
       <c r="A218" s="1">
-        <v>45473</v>
+        <v>45565</v>
       </c>
       <c r="EE218">
         <v>0.01768919490591373</v>
@@ -72177,7 +72177,7 @@
     </row>
     <row r="219" spans="1:150">
       <c r="A219" s="1">
-        <v>45565</v>
+        <v>45657</v>
       </c>
       <c r="EF219">
         <v>0.0001350735459492769</v>
@@ -72227,7 +72227,7 @@
     </row>
     <row r="220" spans="1:150">
       <c r="A220" s="1">
-        <v>45657</v>
+        <v>45747</v>
       </c>
       <c r="EG220">
         <v>0.08824239249695551</v>
@@ -72274,7 +72274,7 @@
     </row>
     <row r="221" spans="1:150">
       <c r="A221" s="1">
-        <v>45747</v>
+        <v>45838</v>
       </c>
       <c r="EH221">
         <v>0.2668170259847391</v>
@@ -72318,7 +72318,7 @@
     </row>
     <row r="222" spans="1:150">
       <c r="A222" s="1">
-        <v>45838</v>
+        <v>45930</v>
       </c>
       <c r="EI222">
         <v>1.178844253737389</v>
@@ -72359,7 +72359,7 @@
     </row>
     <row r="223" spans="1:150">
       <c r="A223" s="1">
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="EJ223">
         <v>0.2348700177716323</v>
@@ -72397,7 +72397,7 @@
     </row>
     <row r="224" spans="1:150">
       <c r="A224" s="1">
-        <v>46022</v>
+        <v>46112</v>
       </c>
       <c r="EK224">
         <v>0.2388379152847414</v>
@@ -72432,7 +72432,7 @@
     </row>
     <row r="225" spans="1:150">
       <c r="A225" s="1">
-        <v>46112</v>
+        <v>46203</v>
       </c>
       <c r="EL225">
         <v>0.3744780054549828</v>
@@ -72464,7 +72464,7 @@
     </row>
     <row r="226" spans="1:150">
       <c r="A226" s="1">
-        <v>46203</v>
+        <v>46295</v>
       </c>
       <c r="EM226">
         <v>0.1336718235993181</v>
@@ -72493,7 +72493,7 @@
     </row>
     <row r="227" spans="1:150">
       <c r="A227" s="1">
-        <v>46295</v>
+        <v>46387</v>
       </c>
       <c r="EN227">
         <v>0.08834060834722172</v>
@@ -72519,7 +72519,7 @@
     </row>
     <row r="228" spans="1:150">
       <c r="A228" s="1">
-        <v>46387</v>
+        <v>46477</v>
       </c>
       <c r="EO228">
         <v>0.02147918641116785</v>
@@ -72542,7 +72542,7 @@
     </row>
     <row r="229" spans="1:150">
       <c r="A229" s="1">
-        <v>46477</v>
+        <v>46568</v>
       </c>
       <c r="EP229">
         <v>-0.00810701594554874</v>
@@ -72562,7 +72562,7 @@
     </row>
     <row r="230" spans="1:150">
       <c r="A230" s="1">
-        <v>46568</v>
+        <v>46660</v>
       </c>
       <c r="EQ230">
         <v>-0.02625767267518964</v>
@@ -72579,7 +72579,7 @@
     </row>
     <row r="231" spans="1:150">
       <c r="A231" s="1">
-        <v>46660</v>
+        <v>46752</v>
       </c>
       <c r="ER231">
         <v>-0.04428949692388896</v>
@@ -72593,7 +72593,7 @@
     </row>
     <row r="232" spans="1:150">
       <c r="A232" s="1">
-        <v>46752</v>
+        <v>46843</v>
       </c>
       <c r="ES232">
         <v>-0.09587373626955231</v>
@@ -72604,7 +72604,7 @@
     </row>
     <row r="233" spans="1:150">
       <c r="A233" s="1">
-        <v>46843</v>
+        <v>46934</v>
       </c>
       <c r="ET233">
         <v>-0.04181509226822702</v>
